--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webd\Certificate_generator_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webd\ipl-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F10EED-778A-4277-8BB5-6DEEEC931064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F3BD6E-959B-4083-ADB3-D0355FD637E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,23 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Rohit Sharma</t>
-  </si>
-  <si>
-    <t>Dewald Brevis</t>
-  </si>
-  <si>
-    <t>Suryakumar Yadav</t>
-  </si>
-  <si>
-    <t>Tilak Varma</t>
-  </si>
-  <si>
     <t>Matches</t>
   </si>
   <si>
@@ -87,7 +75,670 @@
     <t>Image</t>
   </si>
   <si>
-    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/797.png</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Chris Jordan</t>
+  </si>
+  <si>
+    <t>Jasprit Bumrah</t>
+  </si>
+  <si>
+    <t>Riley Meredith</t>
+  </si>
+  <si>
+    <t>Jhye Richardson</t>
+  </si>
+  <si>
+    <t>1CR</t>
+  </si>
+  <si>
+    <t>1.5Cr</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>https://www.mumbaiindians.com/static-assets/images/players/large/action-shots/26718.png?v=3.97&amp;w=400</t>
+  </si>
+  <si>
+    <t>https://www.mumbaiindians.com/static-assets/images/players/large/action-shots/63755.png?v=3.97&amp;w=400</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/playerheadshot/ipl/284/4055.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/59.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowler </t>
+  </si>
+  <si>
+    <t>Kumar Kartikeya</t>
+  </si>
+  <si>
+    <t>Piyush Chawla</t>
+  </si>
+  <si>
+    <t>Sandeep Warrier</t>
+  </si>
+  <si>
+    <t>Akash Madhwal</t>
+  </si>
+  <si>
+    <t>Jason Behrendoff</t>
+  </si>
+  <si>
+    <t>Raghav Goyal</t>
+  </si>
+  <si>
+    <t>Hritik Shokeen</t>
+  </si>
+  <si>
+    <t>Kulwant Khejroliya</t>
+  </si>
+  <si>
+    <t>Suyash Sharma</t>
+  </si>
+  <si>
+    <t>Lokie Ferguson</t>
+  </si>
+  <si>
+    <t>Umesh Yadav</t>
+  </si>
+  <si>
+    <t>Harshit Rana</t>
+  </si>
+  <si>
+    <t>Tim southee</t>
+  </si>
+  <si>
+    <t>Sunil Narine</t>
+  </si>
+  <si>
+    <t>Vaibhav Arora</t>
+  </si>
+  <si>
+    <t>Varun chakravarty</t>
+  </si>
+  <si>
+    <t>Jayant Yadav</t>
+  </si>
+  <si>
+    <t>Pradeep Sangwan</t>
+  </si>
+  <si>
+    <t>Rahul Tewatia</t>
+  </si>
+  <si>
+    <t>Shivam Mavi</t>
+  </si>
+  <si>
+    <t>Alzarri Joseph</t>
+  </si>
+  <si>
+    <t>Mohammad Shami</t>
+  </si>
+  <si>
+    <t>Noor Ahmad</t>
+  </si>
+  <si>
+    <t>Sai Kishore</t>
+  </si>
+  <si>
+    <t>Rashid Khan</t>
+  </si>
+  <si>
+    <t>Yash Dayal</t>
+  </si>
+  <si>
+    <t>Joshua Little</t>
+  </si>
+  <si>
+    <t>Mohit Sharma</t>
+  </si>
+  <si>
+    <t>Avesh Khan</t>
+  </si>
+  <si>
+    <t>Mark Wood</t>
+  </si>
+  <si>
+    <t>Mayank Yadav</t>
+  </si>
+  <si>
+    <t>Mohsin Khan</t>
+  </si>
+  <si>
+    <t>Ravi Bishnoi</t>
+  </si>
+  <si>
+    <t>Jaydev Unadkat</t>
+  </si>
+  <si>
+    <t>Yash Thakur</t>
+  </si>
+  <si>
+    <t>Amit Mishra</t>
+  </si>
+  <si>
+    <t>Arpit Guleria</t>
+  </si>
+  <si>
+    <t>Naveen ul Haq</t>
+  </si>
+  <si>
+    <t>Harpreet Brar</t>
+  </si>
+  <si>
+    <t>Arshdeep Singh</t>
+  </si>
+  <si>
+    <t>Baltej Dhanda</t>
+  </si>
+  <si>
+    <t>Kagiso Rabada</t>
+  </si>
+  <si>
+    <t>Nathan Ellis</t>
+  </si>
+  <si>
+    <t>Rahul Chahar</t>
+  </si>
+  <si>
+    <t>Gurnoor Singh Brar</t>
+  </si>
+  <si>
+    <t>Vidwath Kaverappa</t>
+  </si>
+  <si>
+    <t>Bhuvneshwar Kumar</t>
+  </si>
+  <si>
+    <t>Fazalhaq Farooqi</t>
+  </si>
+  <si>
+    <t>Kartik Tyagi</t>
+  </si>
+  <si>
+    <t>T Natrajan</t>
+  </si>
+  <si>
+    <t>Umran Malik</t>
+  </si>
+  <si>
+    <t>Akeal Hosien</t>
+  </si>
+  <si>
+    <t>Adil Rashid</t>
+  </si>
+  <si>
+    <t>Mayank markande</t>
+  </si>
+  <si>
+    <t>Harshal Patel</t>
+  </si>
+  <si>
+    <t>Shahbaz Ahamad</t>
+  </si>
+  <si>
+    <t>Akash Deep</t>
+  </si>
+  <si>
+    <t>Josh Hazlewood</t>
+  </si>
+  <si>
+    <t>Siddharth Kaul</t>
+  </si>
+  <si>
+    <t>Mohammed Siraj</t>
+  </si>
+  <si>
+    <t>Reece Topley</t>
+  </si>
+  <si>
+    <t>Himanshu Sharma</t>
+  </si>
+  <si>
+    <t>Rajan Kumar</t>
+  </si>
+  <si>
+    <t>Vshak Vijay Kumar</t>
+  </si>
+  <si>
+    <t>Wayne Parnell</t>
+  </si>
+  <si>
+    <t>Avinash Singh</t>
+  </si>
+  <si>
+    <t>KC Cariappa</t>
+  </si>
+  <si>
+    <t>Kuldeep Sen</t>
+  </si>
+  <si>
+    <t>Kuldip Yadav</t>
+  </si>
+  <si>
+    <t>Navdeep Saini</t>
+  </si>
+  <si>
+    <t>Obed Mccoy</t>
+  </si>
+  <si>
+    <t>KM Asif</t>
+  </si>
+  <si>
+    <t>Prasidh Krishna</t>
+  </si>
+  <si>
+    <t>Sandeep Sharma</t>
+  </si>
+  <si>
+    <t>Trent Boult</t>
+  </si>
+  <si>
+    <t>Murugan Ashwin</t>
+  </si>
+  <si>
+    <t>Yuzvendra Chahal</t>
+  </si>
+  <si>
+    <t>Adam Zampa</t>
+  </si>
+  <si>
+    <t>Akash Singh</t>
+  </si>
+  <si>
+    <t>Rajvardhan Hangargekar</t>
+  </si>
+  <si>
+    <t>Deepak Chahar</t>
+  </si>
+  <si>
+    <t>Mahesh Theekshana</t>
+  </si>
+  <si>
+    <t>Mukesh Choudhary</t>
+  </si>
+  <si>
+    <t>Prashant Solanki</t>
+  </si>
+  <si>
+    <t>Simarjeet Singh</t>
+  </si>
+  <si>
+    <t>Tushar Deshpande</t>
+  </si>
+  <si>
+    <t>Matheesha Pathirana</t>
+  </si>
+  <si>
+    <t>Sisanda Magala</t>
+  </si>
+  <si>
+    <t>Kyle Jameison</t>
+  </si>
+  <si>
+    <t>Kamlesh Nagarkoti</t>
+  </si>
+  <si>
+    <t>Praveen Dubey</t>
+  </si>
+  <si>
+    <t>Vicky Ostwal</t>
+  </si>
+  <si>
+    <t>Anrich Nortje</t>
+  </si>
+  <si>
+    <t>Chetan Sakariya</t>
+  </si>
+  <si>
+    <t>Kuldeep Yadav</t>
+  </si>
+  <si>
+    <t>Lungi Ngidi</t>
+  </si>
+  <si>
+    <t>Mustafizur Rahman</t>
+  </si>
+  <si>
+    <t>Khaleel Ahmed</t>
+  </si>
+  <si>
+    <t>Ishant Sharma</t>
+  </si>
+  <si>
+    <t>Mukesh Kumar</t>
+  </si>
+  <si>
+    <t>1.5CR</t>
+  </si>
+  <si>
+    <t>75L</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>West Indies</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1015.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/149.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/228.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1045.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/4.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1933.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/992.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/204.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1932.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/69.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/21.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1013.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/77.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/156.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/583.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/140.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/165.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/977.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/120.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/154.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/229.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/47.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/975.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/544.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/218.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/978.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/678.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/100.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/109.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/315.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/987.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/541.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/520.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/180.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1550.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/107.png</t>
+  </si>
+  <si>
+    <t>https://www.lucknowsupergiants.in/static-assets/images/players/70460.png?v=8.2</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/639.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/130.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/125.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/994.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/116.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/633.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/171.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1231.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1564.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/15.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1011.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/536.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/224.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/637.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/722.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/311.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/87.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/114.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/523.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1007.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/playerheadshot/ipl/284/857.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/64.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/63.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/574.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1568.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1503.png</t>
+  </si>
+  <si>
+    <t>https://www.mykhel.com/thumb/220x100x220/cricket/players/9/4279.1666955484.jpg</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1939.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/227.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1005.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/593.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/207.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/645.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/88.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/220.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/66.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/135.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/10.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/24.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/535.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/783.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/91.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/629.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/970.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/972.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/622.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/539.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1014.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/745.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/382.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/146.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/548.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/786.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/142.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/592.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/14.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/99.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/258.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/8.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/50.png</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1462.png</t>
+  </si>
+  <si>
+    <t>http://t3.gstatic.com/images?q=tbn:ANd9GcS_H9GxXIwyhab0SPNZxYgqshVQDeVAO28D7Q-AjX2PAAth524j62gBSBaQGL01qsMJOvahQQ</t>
   </si>
 </sst>
 </file>
@@ -123,12 +774,36 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -170,7 +845,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,153 +1142,3176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.73</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8.59</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9.84</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14.77</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8.23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12.52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13.17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>11.79</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="2">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8.17</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9.08</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>17</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2">
+        <v>10.09</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="C48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8.92</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="2">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>16</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8.33</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>14.92</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9.11</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="2">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" s="2">
+        <v>9.66</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>8.44</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="2">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2">
+        <v>7.52</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>7</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>9.33</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="2">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10.54</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>9.33</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
+        <v>12.33</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>13</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
+        <v>9.86</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="2">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2">
+        <v>10</v>
+      </c>
+      <c r="E79" s="2">
+        <v>8.61</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="2">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>13</v>
+      </c>
+      <c r="E80" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>13.25</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="2">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2">
+        <v>21</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="2">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5</v>
+      </c>
+      <c r="E84" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2">
+        <v>10</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="2">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2">
+        <v>8.74</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="2">
+        <v>13</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="E87" s="2">
+        <v>8</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>21</v>
+      </c>
+      <c r="E91" s="2">
+        <v>9.92</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="2">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2">
+        <v>19</v>
+      </c>
+      <c r="E92" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>332</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20.75</v>
-      </c>
-      <c r="F2" s="2">
-        <v>132.80000000000001</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E93" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>6.33</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="2">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D98" s="2">
+        <v>10</v>
+      </c>
+      <c r="E98" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>11.13</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="2">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>10</v>
+      </c>
+      <c r="E100" s="2">
+        <v>7.37</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2">
+        <v>11.29</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="2">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="2">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="2">
+        <v>10</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>605</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43.21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>181.14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>343</v>
-      </c>
-      <c r="E5" s="2">
-        <v>42.88</v>
-      </c>
-      <c r="F5" s="2">
-        <v>164.11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
+      <c r="E105" s="2">
+        <v>10.52</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I106" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{0C8EC3E3-F111-4FDB-8235-15BCB3D9E18B}"/>
-    <hyperlink ref="H3:H5" r:id="rId2" display="https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/797.png" xr:uid="{8CA6357A-6E3F-46DA-9956-F49D0684CD92}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{8C96CA46-71E7-4CD6-812F-0494412B317B}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{741EE882-58FA-4A97-8CE9-0318079E894E}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{D880F2B3-42C7-471F-AFDF-94F1B807F4D2}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{D3A1F4F6-CD2E-42A4-B6CD-9F510F503C73}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{F8368F44-5D11-44A5-985A-38C890D882F3}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{4225B900-D559-44F4-8665-68CD0B21A436}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{86476F4E-7B64-448F-9157-3B6480EAB87A}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{F19A607A-BD9A-4372-B544-6C9E56DD8E32}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{2206607C-36C3-4F48-B2D9-E22499EEBD39}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{A954F8E1-4444-43BA-B629-0BDF09D0C206}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{8AF2AC02-9FAA-44AD-A579-E165172EF055}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{324135F8-A455-4721-B01D-D562E1AB5FE1}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{F4478A97-6448-4A05-8EFB-0DA4CC99F048}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{A118705B-3D9E-48AC-B870-F0F9B386EC8D}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{77FFC8C9-F21C-4B7C-A91B-1C75975984E5}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{6FCCB39F-7D45-46D6-AA70-A18B84253F53}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{50B6E20E-212C-4C63-B624-0AFC5BE351FF}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{F4608DD4-30CF-4CC0-84E0-F6EDA1D9348E}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{14995DD7-09E8-4EB4-98C7-2BDE3FECA557}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{074079FF-E0F9-48D3-BDEF-10B6CFF1C8D0}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{4CF6C87E-A64F-456D-813B-E8FFADDA38EC}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{51DF921F-F8A2-42BD-BF7F-E91305A83C31}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{F19FED0F-94C8-4688-BFCC-60A52AD99A61}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{B6823902-1007-4338-814E-8D30E8891942}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{202C58E5-4027-4F59-89F7-F94779973962}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{128127CE-3D8D-477E-8F54-85B83958A973}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{30B2B73B-3F31-450B-8348-F08E259ADE37}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{AF34893C-924B-4141-9A38-39E225B2C8CD}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{733F2765-C555-4DC1-9C04-DF2690113F17}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{57496A60-1235-468B-8CDA-783D701E4BEB}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{B7128B2D-2E01-42B6-BF73-BDCC518DFA1D}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{38359AD5-DED8-4BCF-BDFD-A6B198EA80C7}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{1F183B36-BBE3-42A0-8E17-623EC0F37929}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{D1DC9B80-CA47-42B0-B11D-CA384D9AC55C}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{8FA49FE8-5550-4AD5-A366-CC738045AA8F}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{60F8C4D3-4F7F-412A-AD7B-1BA1C59A2F67}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{B61D4032-B7E7-453C-B071-00946522C875}"/>
+    <hyperlink ref="I39" r:id="rId38" xr:uid="{C7980D6F-24E1-4587-BD81-5F24D5296FF4}"/>
+    <hyperlink ref="I40" r:id="rId39" xr:uid="{DC56F6A7-18A5-466A-BA78-AA2877608A7D}"/>
+    <hyperlink ref="I41" r:id="rId40" xr:uid="{9D1F8566-4072-4CED-9A5F-97F1951FE9BB}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{9EF7F4F2-9ED9-4BFD-B29E-B70D7ED9320A}"/>
+    <hyperlink ref="I43" r:id="rId42" xr:uid="{095E9F82-37DA-4D91-A463-4FD6447939CF}"/>
+    <hyperlink ref="I44" r:id="rId43" xr:uid="{7E44E830-D404-4055-9A9F-96F48220BC18}"/>
+    <hyperlink ref="I45" r:id="rId44" xr:uid="{548E2FDA-9E59-4CB3-9EA7-EE67825C3A4B}"/>
+    <hyperlink ref="I46" r:id="rId45" xr:uid="{2A209FEB-9FC0-41DA-93AC-1303CE193147}"/>
+    <hyperlink ref="I47" r:id="rId46" xr:uid="{70203137-77A9-459F-9E5A-C3A1A5D8C68E}"/>
+    <hyperlink ref="I48" r:id="rId47" xr:uid="{A98E7C2B-B2FB-4D68-9FE2-194B37C2C6B1}"/>
+    <hyperlink ref="I49" r:id="rId48" xr:uid="{DE6AA715-A648-4D4C-B662-57E208CFFB69}"/>
+    <hyperlink ref="I50" r:id="rId49" xr:uid="{386F5475-F5EC-479C-ADA4-BDF7E145F402}"/>
+    <hyperlink ref="I51" r:id="rId50" xr:uid="{359BCED7-2771-400A-86A5-15EDA24B6511}"/>
+    <hyperlink ref="I52" r:id="rId51" xr:uid="{4E8B14B4-144B-4A6A-B7F9-9A40F14760D3}"/>
+    <hyperlink ref="I53" r:id="rId52" xr:uid="{3F15CFF7-747F-42B5-A350-68FCB58ACEC2}"/>
+    <hyperlink ref="I54" r:id="rId53" xr:uid="{7939C098-B825-4E86-9B99-8923F8BB0689}"/>
+    <hyperlink ref="I55" r:id="rId54" xr:uid="{079C284C-5C00-43CE-82F7-BEF89603A613}"/>
+    <hyperlink ref="I56" r:id="rId55" xr:uid="{F971F844-BC56-46F1-A364-67B56634CA17}"/>
+    <hyperlink ref="I57" r:id="rId56" xr:uid="{48578B75-788E-4C34-A26F-6761CED5956E}"/>
+    <hyperlink ref="I58" r:id="rId57" xr:uid="{9229B54E-DD5D-4B67-9A74-ACCD5CEF9D57}"/>
+    <hyperlink ref="I59" r:id="rId58" xr:uid="{87F8B133-F7C4-4DF9-9B3C-81494FF70F20}"/>
+    <hyperlink ref="I60" r:id="rId59" xr:uid="{4CF48A24-FBB9-4297-80A8-923A1A2DD2EF}"/>
+    <hyperlink ref="I61" r:id="rId60" xr:uid="{D13EF918-DEBF-4770-8B9D-F8CD966362E6}"/>
+    <hyperlink ref="I62" r:id="rId61" xr:uid="{A78CEE56-0EE2-4DF1-9808-93E004618378}"/>
+    <hyperlink ref="I63" r:id="rId62" xr:uid="{A55B036F-DC97-4193-BA92-2FC6F2A78186}"/>
+    <hyperlink ref="I64" r:id="rId63" xr:uid="{EF5F28FD-A16F-4650-96BD-6E68FBB326A2}"/>
+    <hyperlink ref="I65" r:id="rId64" xr:uid="{94E379B9-D08D-453F-B1C8-6052C815211C}"/>
+    <hyperlink ref="I66" r:id="rId65" xr:uid="{CBD8C521-E310-4D7A-8C8C-B13101CD2BF4}"/>
+    <hyperlink ref="I67" r:id="rId66" xr:uid="{43E121ED-B07D-4B4A-B762-4DCC6D8D19E7}"/>
+    <hyperlink ref="I68" r:id="rId67" xr:uid="{88269C94-A42A-4F5A-8B68-771AD0096623}"/>
+    <hyperlink ref="I69" r:id="rId68" xr:uid="{625FEAB3-9B97-4C19-B00A-1C0B80143297}"/>
+    <hyperlink ref="I70" r:id="rId69" xr:uid="{594E610C-CBFD-42B1-941D-17106943EE80}"/>
+    <hyperlink ref="I71" r:id="rId70" xr:uid="{315DDDD5-58EC-4DBE-9049-60779BC0C683}"/>
+    <hyperlink ref="I72" r:id="rId71" xr:uid="{9FF805B1-5929-4DC5-A0F2-9B9A4BE5C126}"/>
+    <hyperlink ref="I73" r:id="rId72" xr:uid="{3D42C272-EA30-4E7A-8C13-84A19F1B90D6}"/>
+    <hyperlink ref="I74" r:id="rId73" xr:uid="{5602DCD2-69F3-40BE-B54E-420E1CD95BD3}"/>
+    <hyperlink ref="I75" r:id="rId74" xr:uid="{43776211-33D9-46D4-AB47-2E0E1A4BC044}"/>
+    <hyperlink ref="I76" r:id="rId75" xr:uid="{E56D4E8B-770E-415C-9E3F-803EB129B97B}"/>
+    <hyperlink ref="I77" r:id="rId76" xr:uid="{3034CABA-5E2E-4920-AFEC-75A5789FB68C}"/>
+    <hyperlink ref="I78" r:id="rId77" xr:uid="{2E7F1F13-0473-4ACC-8352-2993E68EE58B}"/>
+    <hyperlink ref="I79" r:id="rId78" xr:uid="{0B66ADBA-C013-4DA2-8153-DA0EE0473565}"/>
+    <hyperlink ref="I80" r:id="rId79" xr:uid="{BDD31CD2-8FC7-493C-B477-E353309C153A}"/>
+    <hyperlink ref="I81" r:id="rId80" xr:uid="{5A26DD46-7464-462C-9665-CD97CED2B285}"/>
+    <hyperlink ref="I82" r:id="rId81" xr:uid="{F1DF1DC0-68DD-4F40-B2CE-861940297540}"/>
+    <hyperlink ref="I83" r:id="rId82" xr:uid="{14293D33-D193-4B95-B37A-21FBC70C01E7}"/>
+    <hyperlink ref="I84" r:id="rId83" xr:uid="{F46598F4-3A76-4584-A887-548643DE2F46}"/>
+    <hyperlink ref="I85" r:id="rId84" xr:uid="{2691B9E9-987D-4F2E-8FFE-6C0721473C4A}"/>
+    <hyperlink ref="I86" r:id="rId85" xr:uid="{155264C1-D2D0-4C17-90E7-2C16CF526DDC}"/>
+    <hyperlink ref="I87" r:id="rId86" xr:uid="{A826F6EC-8D2A-4058-802D-09F347A696F8}"/>
+    <hyperlink ref="I88" r:id="rId87" xr:uid="{DBB870D4-7035-494B-A7C7-013B9A60C242}"/>
+    <hyperlink ref="I89" r:id="rId88" xr:uid="{3FC6843B-3C9C-4BDF-BA5B-9AD21DE601B4}"/>
+    <hyperlink ref="I90" r:id="rId89" xr:uid="{BA59CF25-D8D1-401B-B238-2AD006F512F2}"/>
+    <hyperlink ref="I91" r:id="rId90" xr:uid="{956B13BD-6748-4C86-BBE7-E86E9DB5C241}"/>
+    <hyperlink ref="I92" r:id="rId91" xr:uid="{9703C35E-6272-428C-B6EF-6B4A803A38F9}"/>
+    <hyperlink ref="I93" r:id="rId92" xr:uid="{F5404B82-9856-4A72-AC4E-93D99681DB43}"/>
+    <hyperlink ref="I94" r:id="rId93" xr:uid="{FB648B4F-95FF-4E2F-A7DC-7D33CE977405}"/>
+    <hyperlink ref="I95" r:id="rId94" xr:uid="{D0179779-47AE-4494-8286-BE94429EB2DF}"/>
+    <hyperlink ref="I96" r:id="rId95" xr:uid="{A7AE5A3F-BA13-485D-8213-4168A5F713E4}"/>
+    <hyperlink ref="I97" r:id="rId96" xr:uid="{C6D6F89A-9CFC-43CB-9266-81EDB9F9801B}"/>
+    <hyperlink ref="I98" r:id="rId97" xr:uid="{6C5BA30D-FEDD-4DBC-874E-2DA3A7D37D70}"/>
+    <hyperlink ref="I99" r:id="rId98" xr:uid="{CF74B58F-B719-44BC-A867-FD168BDF6E09}"/>
+    <hyperlink ref="I100" r:id="rId99" xr:uid="{376E1F97-96DC-4284-AD56-6AB42C0EC775}"/>
+    <hyperlink ref="I101" r:id="rId100" xr:uid="{2A3AE081-F98F-4782-9B34-F1B906FFA2A5}"/>
+    <hyperlink ref="I102" r:id="rId101" xr:uid="{90C352D6-755C-4DC3-92E5-36E062290B95}"/>
+    <hyperlink ref="I103" r:id="rId102" xr:uid="{E3AF0DC0-6370-49E9-B481-3D293D435E03}"/>
+    <hyperlink ref="I104" r:id="rId103" xr:uid="{405F5771-794D-40A0-8401-3AF5D6184FFA}"/>
+    <hyperlink ref="I105" r:id="rId104" xr:uid="{A06E192F-8240-4E5F-9261-65AB40FDB472}"/>
+    <hyperlink ref="I106" r:id="rId105" xr:uid="{ECE7986B-98DF-4B4D-B1C1-ED7702AC1881}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>